--- a/contratos/contratos-10-2014.xlsx
+++ b/contratos/contratos-10-2014.xlsx
@@ -730,7 +730,7 @@
     <t>DE BATTISTA HUGO GUILLERMO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BOURLOT NESTOR CONRADO</t>
@@ -766,7 +766,7 @@
     <t>RADIO LUX S.A.</t>
   </si>
   <si>
-    <t>RAMIREZ CLAUDIA, RAMIREZ CESAR Y RAMIREZ VERONICA S.H.</t>
+    <t>RAMIREZ CLAUDIA. RAMIREZ CESAR Y RAMIREZ VERONICA SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -868,7 +868,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -925,7 +925,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>SISTEMAS URBANOS S.A.</t>
@@ -1018,7 +1018,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CENTINELA S.R.L.</t>
@@ -1309,7 +1309,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>EL PINCEL TRAVIESO</t>
@@ -1474,694 +1474,694 @@
     <t>103</t>
   </si>
   <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>16.995,00</t>
-  </si>
-  <si>
-    <t>16.280,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>8.190,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>46.400,00</t>
-  </si>
-  <si>
-    <t>186.500,00</t>
-  </si>
-  <si>
-    <t>1.790,00</t>
-  </si>
-  <si>
-    <t>4.162,64</t>
-  </si>
-  <si>
-    <t>3.025,00</t>
-  </si>
-  <si>
-    <t>6.995,20</t>
-  </si>
-  <si>
-    <t>4.099,81</t>
-  </si>
-  <si>
-    <t>128.587,20</t>
-  </si>
-  <si>
-    <t>527.182,66</t>
-  </si>
-  <si>
-    <t>1.595,00</t>
-  </si>
-  <si>
-    <t>140.545,24</t>
-  </si>
-  <si>
-    <t>3.177,50</t>
-  </si>
-  <si>
-    <t>23.175,00</t>
-  </si>
-  <si>
-    <t>3.139,00</t>
-  </si>
-  <si>
-    <t>2.220,42</t>
-  </si>
-  <si>
-    <t>1.739,00</t>
-  </si>
-  <si>
-    <t>11.735,63</t>
-  </si>
-  <si>
-    <t>12.753,02</t>
-  </si>
-  <si>
-    <t>2.170,00</t>
-  </si>
-  <si>
-    <t>11.600,00</t>
-  </si>
-  <si>
-    <t>4.480,00</t>
-  </si>
-  <si>
-    <t>610,00</t>
-  </si>
-  <si>
-    <t>106,74</t>
-  </si>
-  <si>
-    <t>30,30</t>
-  </si>
-  <si>
-    <t>387,00</t>
-  </si>
-  <si>
-    <t>95.928,99</t>
-  </si>
-  <si>
-    <t>29.172,26</t>
-  </si>
-  <si>
-    <t>52.454,68</t>
-  </si>
-  <si>
-    <t>224,70</t>
-  </si>
-  <si>
-    <t>6.977,21</t>
-  </si>
-  <si>
-    <t>39,70</t>
-  </si>
-  <si>
-    <t>1.123,81</t>
-  </si>
-  <si>
-    <t>116.217,50</t>
-  </si>
-  <si>
-    <t>3.877,56</t>
-  </si>
-  <si>
-    <t>35.599,46</t>
-  </si>
-  <si>
-    <t>25.604,00</t>
-  </si>
-  <si>
-    <t>611,37</t>
-  </si>
-  <si>
-    <t>81.353,02</t>
-  </si>
-  <si>
-    <t>198.224,43</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>1.953,23</t>
-  </si>
-  <si>
-    <t>3.560,00</t>
-  </si>
-  <si>
-    <t>5,70</t>
-  </si>
-  <si>
-    <t>9.551,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>1.578,50</t>
-  </si>
-  <si>
-    <t>84,14</t>
-  </si>
-  <si>
-    <t>2.561,53</t>
-  </si>
-  <si>
-    <t>114,80</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>129.591,38</t>
-  </si>
-  <si>
-    <t>107.565,53</t>
-  </si>
-  <si>
-    <t>5.350,00</t>
-  </si>
-  <si>
-    <t>24,00</t>
-  </si>
-  <si>
-    <t>2.552,00</t>
-  </si>
-  <si>
-    <t>3.043,78</t>
-  </si>
-  <si>
-    <t>375,02</t>
-  </si>
-  <si>
-    <t>10.377,26</t>
-  </si>
-  <si>
-    <t>2.820,72</t>
-  </si>
-  <si>
-    <t>2.970,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>593,14</t>
-  </si>
-  <si>
-    <t>4.165,00</t>
-  </si>
-  <si>
-    <t>9.786,00</t>
-  </si>
-  <si>
-    <t>4.068,00</t>
-  </si>
-  <si>
-    <t>66.700,00</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>21,48</t>
-  </si>
-  <si>
-    <t>989,20</t>
-  </si>
-  <si>
-    <t>266,00</t>
-  </si>
-  <si>
-    <t>125,92</t>
-  </si>
-  <si>
-    <t>44.398,00</t>
-  </si>
-  <si>
-    <t>60,72</t>
-  </si>
-  <si>
-    <t>1.356,66</t>
-  </si>
-  <si>
-    <t>27.300,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>16.650,00</t>
-  </si>
-  <si>
-    <t>3.960,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>3.090,00</t>
-  </si>
-  <si>
-    <t>28.019,52</t>
-  </si>
-  <si>
-    <t>1.236,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>1.395,00</t>
-  </si>
-  <si>
-    <t>17.705,00</t>
-  </si>
-  <si>
-    <t>991,00</t>
-  </si>
-  <si>
-    <t>2.121,20</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>1.165,00</t>
-  </si>
-  <si>
-    <t>27,60</t>
-  </si>
-  <si>
-    <t>3.579,40</t>
-  </si>
-  <si>
-    <t>895,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>14.319,91</t>
-  </si>
-  <si>
-    <t>345.761,96</t>
-  </si>
-  <si>
-    <t>77.081,15</t>
-  </si>
-  <si>
-    <t>1.445,00</t>
-  </si>
-  <si>
-    <t>76,53</t>
-  </si>
-  <si>
-    <t>8.324,90</t>
-  </si>
-  <si>
-    <t>8.829,00</t>
-  </si>
-  <si>
-    <t>200,90</t>
-  </si>
-  <si>
-    <t>5.145,00</t>
-  </si>
-  <si>
-    <t>2.907,80</t>
-  </si>
-  <si>
-    <t>10.489,00</t>
-  </si>
-  <si>
-    <t>9.632,99</t>
-  </si>
-  <si>
-    <t>1.003,60</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>2.876,00</t>
-  </si>
-  <si>
-    <t>208,50</t>
-  </si>
-  <si>
-    <t>644,00</t>
-  </si>
-  <si>
-    <t>73,05</t>
-  </si>
-  <si>
-    <t>32.991,40</t>
-  </si>
-  <si>
-    <t>4.181,45</t>
-  </si>
-  <si>
-    <t>3.976,00</t>
-  </si>
-  <si>
-    <t>12.658,21</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>62,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>175.000,00</t>
-  </si>
-  <si>
-    <t>235,00</t>
-  </si>
-  <si>
-    <t>121,70</t>
-  </si>
-  <si>
-    <t>38.630,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>3.711,00</t>
-  </si>
-  <si>
-    <t>108.430,92</t>
-  </si>
-  <si>
-    <t>3.772,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>5.659,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>29.040,00</t>
-  </si>
-  <si>
-    <t>1.410,23</t>
-  </si>
-  <si>
-    <t>2.108,30</t>
-  </si>
-  <si>
-    <t>1.337,80</t>
-  </si>
-  <si>
-    <t>315,32</t>
-  </si>
-  <si>
-    <t>85,50</t>
-  </si>
-  <si>
-    <t>939,44</t>
-  </si>
-  <si>
-    <t>705,25</t>
-  </si>
-  <si>
-    <t>21.371,40</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>24.865,50</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>28.020,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>155,00</t>
-  </si>
-  <si>
-    <t>7.150,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>15.456,00</t>
-  </si>
-  <si>
-    <t>830,00</t>
-  </si>
-  <si>
-    <t>2.360,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>665,00</t>
-  </si>
-  <si>
-    <t>5.770,00</t>
-  </si>
-  <si>
-    <t>100,23</t>
-  </si>
-  <si>
-    <t>6.785,00</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>3.312,78</t>
-  </si>
-  <si>
-    <t>3.913,00</t>
-  </si>
-  <si>
-    <t>1.890,12</t>
-  </si>
-  <si>
-    <t>2.720,00</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>1.896,00</t>
-  </si>
-  <si>
-    <t>3.360,00</t>
-  </si>
-  <si>
-    <t>324,00</t>
-  </si>
-  <si>
-    <t>218,26</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>1.767,98</t>
-  </si>
-  <si>
-    <t>2.007,80</t>
-  </si>
-  <si>
-    <t>2.506,23</t>
-  </si>
-  <si>
-    <t>1.023,52</t>
-  </si>
-  <si>
-    <t>30.069,22</t>
-  </si>
-  <si>
-    <t>16.809,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>9.006,00</t>
-  </si>
-  <si>
-    <t>2.640,40</t>
-  </si>
-  <si>
-    <t>7.352,70</t>
-  </si>
-  <si>
-    <t>9.636,08</t>
-  </si>
-  <si>
-    <t>2.062,10</t>
-  </si>
-  <si>
-    <t>55,00</t>
-  </si>
-  <si>
-    <t>778,80</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>14.686,00</t>
-  </si>
-  <si>
-    <t>76,24</t>
-  </si>
-  <si>
-    <t>9.472,00</t>
-  </si>
-  <si>
-    <t>2.753,76</t>
-  </si>
-  <si>
-    <t>3.660,00</t>
-  </si>
-  <si>
-    <t>176,80</t>
-  </si>
-  <si>
-    <t>290.490,58</t>
-  </si>
-  <si>
-    <t>5.202,03</t>
-  </si>
-  <si>
-    <t>27.600,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>861.479,91</t>
-  </si>
-  <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>179.336,00</t>
-  </si>
-  <si>
-    <t>407.134,92</t>
-  </si>
-  <si>
-    <t>56.219,00</t>
-  </si>
-  <si>
-    <t>120.625,84</t>
-  </si>
-  <si>
-    <t>117.522,00</t>
-  </si>
-  <si>
-    <t>70.174,30</t>
-  </si>
-  <si>
-    <t>244.344,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>276.703,68</t>
-  </si>
-  <si>
-    <t>4.324.833,09</t>
-  </si>
-  <si>
-    <t>470.045,43</t>
-  </si>
-  <si>
-    <t>194.800,00</t>
-  </si>
-  <si>
-    <t>38.850,00</t>
-  </si>
-  <si>
-    <t>26.455,00</t>
-  </si>
-  <si>
-    <t>187.400,00</t>
-  </si>
-  <si>
-    <t>7.650,00</t>
-  </si>
-  <si>
-    <t>14.690,00</t>
-  </si>
-  <si>
-    <t>330.000,00</t>
-  </si>
-  <si>
-    <t>653.400,00</t>
-  </si>
-  <si>
-    <t>240,50</t>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>16995.00</t>
+  </si>
+  <si>
+    <t>16280.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>8190.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>46400.00</t>
+  </si>
+  <si>
+    <t>186500.00</t>
+  </si>
+  <si>
+    <t>1790.00</t>
+  </si>
+  <si>
+    <t>4162.64</t>
+  </si>
+  <si>
+    <t>3025.00</t>
+  </si>
+  <si>
+    <t>6995.20</t>
+  </si>
+  <si>
+    <t>4099.81</t>
+  </si>
+  <si>
+    <t>128587.20</t>
+  </si>
+  <si>
+    <t>527182.66</t>
+  </si>
+  <si>
+    <t>1595.00</t>
+  </si>
+  <si>
+    <t>140545.24</t>
+  </si>
+  <si>
+    <t>3177.50</t>
+  </si>
+  <si>
+    <t>23175.00</t>
+  </si>
+  <si>
+    <t>3139.00</t>
+  </si>
+  <si>
+    <t>2220.42</t>
+  </si>
+  <si>
+    <t>1739.00</t>
+  </si>
+  <si>
+    <t>11735.63</t>
+  </si>
+  <si>
+    <t>12753.02</t>
+  </si>
+  <si>
+    <t>2170.00</t>
+  </si>
+  <si>
+    <t>11600.00</t>
+  </si>
+  <si>
+    <t>4480.00</t>
+  </si>
+  <si>
+    <t>610.00</t>
+  </si>
+  <si>
+    <t>106.74</t>
+  </si>
+  <si>
+    <t>30.30</t>
+  </si>
+  <si>
+    <t>387.00</t>
+  </si>
+  <si>
+    <t>95928.99</t>
+  </si>
+  <si>
+    <t>29172.26</t>
+  </si>
+  <si>
+    <t>52454.68</t>
+  </si>
+  <si>
+    <t>224.70</t>
+  </si>
+  <si>
+    <t>6977.21</t>
+  </si>
+  <si>
+    <t>39.70</t>
+  </si>
+  <si>
+    <t>1123.81</t>
+  </si>
+  <si>
+    <t>116217.50</t>
+  </si>
+  <si>
+    <t>3877.56</t>
+  </si>
+  <si>
+    <t>35599.46</t>
+  </si>
+  <si>
+    <t>25604.00</t>
+  </si>
+  <si>
+    <t>611.37</t>
+  </si>
+  <si>
+    <t>81353.02</t>
+  </si>
+  <si>
+    <t>198224.43</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>1953.23</t>
+  </si>
+  <si>
+    <t>3560.00</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>9551.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>1578.50</t>
+  </si>
+  <si>
+    <t>84.14</t>
+  </si>
+  <si>
+    <t>2561.53</t>
+  </si>
+  <si>
+    <t>114.80</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>129591.38</t>
+  </si>
+  <si>
+    <t>107565.53</t>
+  </si>
+  <si>
+    <t>5350.00</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>2552.00</t>
+  </si>
+  <si>
+    <t>3043.78</t>
+  </si>
+  <si>
+    <t>375.02</t>
+  </si>
+  <si>
+    <t>10377.26</t>
+  </si>
+  <si>
+    <t>2820.72</t>
+  </si>
+  <si>
+    <t>2970.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>593.14</t>
+  </si>
+  <si>
+    <t>4165.00</t>
+  </si>
+  <si>
+    <t>9786.00</t>
+  </si>
+  <si>
+    <t>4068.00</t>
+  </si>
+  <si>
+    <t>66700.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>21.48</t>
+  </si>
+  <si>
+    <t>989.20</t>
+  </si>
+  <si>
+    <t>266.00</t>
+  </si>
+  <si>
+    <t>125.92</t>
+  </si>
+  <si>
+    <t>44398.00</t>
+  </si>
+  <si>
+    <t>60.72</t>
+  </si>
+  <si>
+    <t>1356.66</t>
+  </si>
+  <si>
+    <t>27300.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>16650.00</t>
+  </si>
+  <si>
+    <t>3960.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>3090.00</t>
+  </si>
+  <si>
+    <t>28019.52</t>
+  </si>
+  <si>
+    <t>1236.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>1395.00</t>
+  </si>
+  <si>
+    <t>17705.00</t>
+  </si>
+  <si>
+    <t>991.00</t>
+  </si>
+  <si>
+    <t>2121.20</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>1165.00</t>
+  </si>
+  <si>
+    <t>27.60</t>
+  </si>
+  <si>
+    <t>3579.40</t>
+  </si>
+  <si>
+    <t>895.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>14319.91</t>
+  </si>
+  <si>
+    <t>345761.96</t>
+  </si>
+  <si>
+    <t>77081.15</t>
+  </si>
+  <si>
+    <t>1445.00</t>
+  </si>
+  <si>
+    <t>76.53</t>
+  </si>
+  <si>
+    <t>8324.90</t>
+  </si>
+  <si>
+    <t>8829.00</t>
+  </si>
+  <si>
+    <t>200.90</t>
+  </si>
+  <si>
+    <t>5145.00</t>
+  </si>
+  <si>
+    <t>2907.80</t>
+  </si>
+  <si>
+    <t>10489.00</t>
+  </si>
+  <si>
+    <t>9632.99</t>
+  </si>
+  <si>
+    <t>1003.60</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>2876.00</t>
+  </si>
+  <si>
+    <t>208.50</t>
+  </si>
+  <si>
+    <t>644.00</t>
+  </si>
+  <si>
+    <t>73.05</t>
+  </si>
+  <si>
+    <t>32991.40</t>
+  </si>
+  <si>
+    <t>4181.45</t>
+  </si>
+  <si>
+    <t>3976.00</t>
+  </si>
+  <si>
+    <t>12658.21</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>175000.00</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>121.70</t>
+  </si>
+  <si>
+    <t>38630.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>3711.00</t>
+  </si>
+  <si>
+    <t>108430.92</t>
+  </si>
+  <si>
+    <t>3772.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>5659.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>29040.00</t>
+  </si>
+  <si>
+    <t>1410.23</t>
+  </si>
+  <si>
+    <t>2108.30</t>
+  </si>
+  <si>
+    <t>1337.80</t>
+  </si>
+  <si>
+    <t>315.32</t>
+  </si>
+  <si>
+    <t>85.50</t>
+  </si>
+  <si>
+    <t>939.44</t>
+  </si>
+  <si>
+    <t>705.25</t>
+  </si>
+  <si>
+    <t>21371.40</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>24865.50</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>28020.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>7150.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>15456.00</t>
+  </si>
+  <si>
+    <t>830.00</t>
+  </si>
+  <si>
+    <t>2360.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>665.00</t>
+  </si>
+  <si>
+    <t>5770.00</t>
+  </si>
+  <si>
+    <t>100.23</t>
+  </si>
+  <si>
+    <t>6785.00</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>3312.78</t>
+  </si>
+  <si>
+    <t>3913.00</t>
+  </si>
+  <si>
+    <t>1890.12</t>
+  </si>
+  <si>
+    <t>2720.00</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>1896.00</t>
+  </si>
+  <si>
+    <t>3360.00</t>
+  </si>
+  <si>
+    <t>324.00</t>
+  </si>
+  <si>
+    <t>218.26</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>1767.98</t>
+  </si>
+  <si>
+    <t>2007.80</t>
+  </si>
+  <si>
+    <t>2506.23</t>
+  </si>
+  <si>
+    <t>1023.52</t>
+  </si>
+  <si>
+    <t>30069.22</t>
+  </si>
+  <si>
+    <t>16809.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9006.00</t>
+  </si>
+  <si>
+    <t>2640.40</t>
+  </si>
+  <si>
+    <t>7352.70</t>
+  </si>
+  <si>
+    <t>9636.08</t>
+  </si>
+  <si>
+    <t>2062.10</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>778.80</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>14686.00</t>
+  </si>
+  <si>
+    <t>76.24</t>
+  </si>
+  <si>
+    <t>9472.00</t>
+  </si>
+  <si>
+    <t>2753.76</t>
+  </si>
+  <si>
+    <t>3660.00</t>
+  </si>
+  <si>
+    <t>176.80</t>
+  </si>
+  <si>
+    <t>290490.58</t>
+  </si>
+  <si>
+    <t>5202.03</t>
+  </si>
+  <si>
+    <t>27600.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>861479.91</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>179336.00</t>
+  </si>
+  <si>
+    <t>407134.92</t>
+  </si>
+  <si>
+    <t>56219.00</t>
+  </si>
+  <si>
+    <t>120625.84</t>
+  </si>
+  <si>
+    <t>117522.00</t>
+  </si>
+  <si>
+    <t>70174.30</t>
+  </si>
+  <si>
+    <t>244344.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>276703.68</t>
+  </si>
+  <si>
+    <t>4324833.09</t>
+  </si>
+  <si>
+    <t>470045.43</t>
+  </si>
+  <si>
+    <t>194800.00</t>
+  </si>
+  <si>
+    <t>38850.00</t>
+  </si>
+  <si>
+    <t>26455.00</t>
+  </si>
+  <si>
+    <t>187400.00</t>
+  </si>
+  <si>
+    <t>7650.00</t>
+  </si>
+  <si>
+    <t>14690.00</t>
+  </si>
+  <si>
+    <t>330000.00</t>
+  </si>
+  <si>
+    <t>653400.00</t>
+  </si>
+  <si>
+    <t>240.50</t>
   </si>
 </sst>
 </file>
